--- a/Analisis Estructural/cross exel/Ejemplo  2 de clase.xlsx
+++ b/Analisis Estructural/cross exel/Ejemplo  2 de clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Primer-Semestre-24\Analisis Estructural\cross exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC30EFA-CAD5-429F-A225-E66B9AB844DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25523811-8922-46B7-88A9-4E2D619B1E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6662C7B-FB84-422B-8C7E-EDC12C964111}"/>
   </bookViews>
@@ -600,92 +600,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE86CC2-052B-4F6A-8E07-927D87597AFB}">
   <dimension ref="A6:CR69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK31" sqref="AK31:AP31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34:U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,84 +1447,84 @@
   </cols>
   <sheetData>
     <row r="6" spans="17:96" x14ac:dyDescent="0.3">
-      <c r="BP6" s="51" t="s">
+      <c r="BP6" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="BQ6" s="52"/>
-      <c r="BR6" s="52"/>
-      <c r="BS6" s="52"/>
-      <c r="BT6" s="52"/>
-      <c r="BU6" s="52"/>
-      <c r="BV6" s="52"/>
-      <c r="BW6" s="52"/>
-      <c r="BX6" s="52"/>
-      <c r="BY6" s="52"/>
-      <c r="BZ6" s="52"/>
-      <c r="CA6" s="52"/>
-      <c r="CB6" s="52"/>
-      <c r="CC6" s="52"/>
-      <c r="CD6" s="52"/>
-      <c r="CE6" s="52"/>
-      <c r="CF6" s="52"/>
-      <c r="CG6" s="52"/>
-      <c r="CH6" s="52"/>
-      <c r="CI6" s="52"/>
-      <c r="CJ6" s="52"/>
-      <c r="CK6" s="52"/>
-      <c r="CL6" s="52"/>
-      <c r="CM6" s="52"/>
-      <c r="CN6" s="52"/>
-      <c r="CO6" s="52"/>
-      <c r="CP6" s="52"/>
-      <c r="CQ6" s="52"/>
-      <c r="CR6" s="52"/>
+      <c r="BQ6" s="59"/>
+      <c r="BR6" s="59"/>
+      <c r="BS6" s="59"/>
+      <c r="BT6" s="59"/>
+      <c r="BU6" s="59"/>
+      <c r="BV6" s="59"/>
+      <c r="BW6" s="59"/>
+      <c r="BX6" s="59"/>
+      <c r="BY6" s="59"/>
+      <c r="BZ6" s="59"/>
+      <c r="CA6" s="59"/>
+      <c r="CB6" s="59"/>
+      <c r="CC6" s="59"/>
+      <c r="CD6" s="59"/>
+      <c r="CE6" s="59"/>
+      <c r="CF6" s="59"/>
+      <c r="CG6" s="59"/>
+      <c r="CH6" s="59"/>
+      <c r="CI6" s="59"/>
+      <c r="CJ6" s="59"/>
+      <c r="CK6" s="59"/>
+      <c r="CL6" s="59"/>
+      <c r="CM6" s="59"/>
+      <c r="CN6" s="59"/>
+      <c r="CO6" s="59"/>
+      <c r="CP6" s="59"/>
+      <c r="CQ6" s="59"/>
+      <c r="CR6" s="59"/>
     </row>
     <row r="7" spans="17:96" x14ac:dyDescent="0.3">
-      <c r="BP7" s="43"/>
-      <c r="BQ7" s="44"/>
-      <c r="BR7" s="44"/>
-      <c r="BS7" s="44"/>
-      <c r="BT7" s="45"/>
-      <c r="BU7" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="44"/>
-      <c r="BW7" s="45"/>
-      <c r="BX7" s="53" t="s">
+      <c r="BP7" s="60"/>
+      <c r="BQ7" s="61"/>
+      <c r="BR7" s="61"/>
+      <c r="BS7" s="61"/>
+      <c r="BT7" s="62"/>
+      <c r="BU7" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="61"/>
+      <c r="BW7" s="62"/>
+      <c r="BX7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BY7" s="44"/>
-      <c r="BZ7" s="45"/>
-      <c r="CA7" s="53" t="s">
+      <c r="BY7" s="61"/>
+      <c r="BZ7" s="62"/>
+      <c r="CA7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="CB7" s="44"/>
-      <c r="CC7" s="45"/>
-      <c r="CD7" s="53" t="s">
+      <c r="CB7" s="61"/>
+      <c r="CC7" s="62"/>
+      <c r="CD7" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="CE7" s="44"/>
-      <c r="CF7" s="45"/>
-      <c r="CG7" s="53" t="s">
+      <c r="CE7" s="61"/>
+      <c r="CF7" s="62"/>
+      <c r="CG7" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="CH7" s="44"/>
-      <c r="CI7" s="45"/>
-      <c r="CJ7" s="53" t="s">
+      <c r="CH7" s="61"/>
+      <c r="CI7" s="62"/>
+      <c r="CJ7" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="CK7" s="44"/>
-      <c r="CL7" s="45"/>
-      <c r="CM7" s="53" t="s">
+      <c r="CK7" s="61"/>
+      <c r="CL7" s="62"/>
+      <c r="CM7" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="CN7" s="44"/>
-      <c r="CO7" s="45"/>
-      <c r="CP7" s="53" t="s">
+      <c r="CN7" s="61"/>
+      <c r="CO7" s="62"/>
+      <c r="CP7" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="CQ7" s="44"/>
-      <c r="CR7" s="45"/>
+      <c r="CQ7" s="61"/>
+      <c r="CR7" s="62"/>
     </row>
     <row r="8" spans="17:96" x14ac:dyDescent="0.3">
       <c r="Q8" t="s">
@@ -1542,61 +1542,61 @@
       <c r="BF8" t="s">
         <v>24</v>
       </c>
-      <c r="BP8" s="56" t="s">
+      <c r="BP8" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="BQ8" s="44"/>
-      <c r="BR8" s="44"/>
-      <c r="BS8" s="44"/>
-      <c r="BT8" s="45"/>
-      <c r="BU8" s="43">
+      <c r="BQ8" s="61"/>
+      <c r="BR8" s="61"/>
+      <c r="BS8" s="61"/>
+      <c r="BT8" s="62"/>
+      <c r="BU8" s="60">
         <f>-(P37*10*10/12)</f>
         <v>-16666.666666666668</v>
       </c>
-      <c r="BV8" s="44"/>
-      <c r="BW8" s="45"/>
-      <c r="BX8" s="43">
+      <c r="BV8" s="61"/>
+      <c r="BW8" s="62"/>
+      <c r="BX8" s="60">
         <f>-(BU8)</f>
         <v>16666.666666666668</v>
       </c>
-      <c r="BY8" s="44"/>
-      <c r="BZ8" s="45"/>
-      <c r="CA8" s="43">
+      <c r="BY8" s="61"/>
+      <c r="BZ8" s="62"/>
+      <c r="CA8" s="60">
         <f>-(W37*10*10/12)</f>
         <v>-83333.333333333328</v>
       </c>
-      <c r="CB8" s="44"/>
-      <c r="CC8" s="45"/>
-      <c r="CD8" s="43">
+      <c r="CB8" s="61"/>
+      <c r="CC8" s="62"/>
+      <c r="CD8" s="60">
         <f>-(CA8)</f>
         <v>83333.333333333328</v>
       </c>
-      <c r="CE8" s="44"/>
-      <c r="CF8" s="45"/>
-      <c r="CG8" s="43">
+      <c r="CE8" s="61"/>
+      <c r="CF8" s="62"/>
+      <c r="CG8" s="60">
         <f>-(AD37*10*10/12)</f>
         <v>-8333.3333333333339</v>
       </c>
-      <c r="CH8" s="44"/>
-      <c r="CI8" s="45"/>
-      <c r="CJ8" s="43">
+      <c r="CH8" s="61"/>
+      <c r="CI8" s="62"/>
+      <c r="CJ8" s="60">
         <f>-(CG8)</f>
         <v>8333.3333333333339</v>
       </c>
-      <c r="CK8" s="44"/>
-      <c r="CL8" s="45"/>
-      <c r="CM8" s="43" t="e">
+      <c r="CK8" s="61"/>
+      <c r="CL8" s="62"/>
+      <c r="CM8" s="60" t="e">
         <f>-(#REF!*#REF!*#REF!)/12</f>
         <v>#REF!</v>
       </c>
-      <c r="CN8" s="44"/>
-      <c r="CO8" s="45"/>
-      <c r="CP8" s="43" t="e">
+      <c r="CN8" s="61"/>
+      <c r="CO8" s="62"/>
+      <c r="CP8" s="60" t="e">
         <f>-(CM8)</f>
         <v>#REF!</v>
       </c>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="45"/>
+      <c r="CQ8" s="61"/>
+      <c r="CR8" s="62"/>
     </row>
     <row r="9" spans="17:96" x14ac:dyDescent="0.3">
       <c r="Q9" s="37" t="s">
@@ -1620,61 +1620,61 @@
       <c r="BF9" t="s">
         <v>25</v>
       </c>
-      <c r="BP9" s="47" t="s">
+      <c r="BP9" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="BQ9" s="44"/>
-      <c r="BR9" s="44"/>
-      <c r="BS9" s="44"/>
-      <c r="BT9" s="45"/>
-      <c r="BU9" s="43">
+      <c r="BQ9" s="61"/>
+      <c r="BR9" s="61"/>
+      <c r="BS9" s="61"/>
+      <c r="BT9" s="62"/>
+      <c r="BU9" s="60">
         <f>-(P37*10/8)</f>
         <v>-2500</v>
       </c>
-      <c r="BV9" s="44"/>
-      <c r="BW9" s="45"/>
-      <c r="BX9" s="43">
+      <c r="BV9" s="61"/>
+      <c r="BW9" s="62"/>
+      <c r="BX9" s="60">
         <f>-(BU9)</f>
         <v>2500</v>
       </c>
-      <c r="BY9" s="54"/>
-      <c r="BZ9" s="55"/>
-      <c r="CA9" s="43">
+      <c r="BY9" s="65"/>
+      <c r="BZ9" s="66"/>
+      <c r="CA9" s="60">
         <f>-(W37*10/8)</f>
         <v>-12500</v>
       </c>
-      <c r="CB9" s="44"/>
-      <c r="CC9" s="45"/>
-      <c r="CD9" s="43">
+      <c r="CB9" s="61"/>
+      <c r="CC9" s="62"/>
+      <c r="CD9" s="60">
         <f>-(CA9)</f>
         <v>12500</v>
       </c>
-      <c r="CE9" s="54"/>
-      <c r="CF9" s="55"/>
-      <c r="CG9" s="43">
+      <c r="CE9" s="65"/>
+      <c r="CF9" s="66"/>
+      <c r="CG9" s="60">
         <f>-(Z37*10/8)</f>
         <v>0</v>
       </c>
-      <c r="CH9" s="44"/>
-      <c r="CI9" s="45"/>
-      <c r="CJ9" s="43">
+      <c r="CH9" s="61"/>
+      <c r="CI9" s="62"/>
+      <c r="CJ9" s="60">
         <f>-(CG9)</f>
         <v>0</v>
       </c>
-      <c r="CK9" s="54"/>
-      <c r="CL9" s="55"/>
-      <c r="CM9" s="43" t="e">
+      <c r="CK9" s="65"/>
+      <c r="CL9" s="66"/>
+      <c r="CM9" s="60" t="e">
         <f>-(#REF!*#REF!)/8</f>
         <v>#REF!</v>
       </c>
-      <c r="CN9" s="44"/>
-      <c r="CO9" s="45"/>
-      <c r="CP9" s="43" t="e">
+      <c r="CN9" s="61"/>
+      <c r="CO9" s="62"/>
+      <c r="CP9" s="60" t="e">
         <f>-(CM9)</f>
         <v>#REF!</v>
       </c>
-      <c r="CQ9" s="44"/>
-      <c r="CR9" s="45"/>
+      <c r="CQ9" s="61"/>
+      <c r="CR9" s="62"/>
     </row>
     <row r="10" spans="17:96" x14ac:dyDescent="0.3">
       <c r="Q10" s="37" t="s">
@@ -1692,53 +1692,53 @@
       <c r="BF10" t="s">
         <v>26</v>
       </c>
-      <c r="BP10" s="47" t="s">
+      <c r="BP10" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="BQ10" s="44"/>
-      <c r="BR10" s="44"/>
-      <c r="BS10" s="44"/>
-      <c r="BT10" s="45"/>
-      <c r="BU10" s="46">
-        <v>0</v>
-      </c>
-      <c r="BV10" s="44"/>
-      <c r="BW10" s="45"/>
-      <c r="BX10" s="46">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="44"/>
-      <c r="BZ10" s="45"/>
-      <c r="CA10" s="46">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="44"/>
-      <c r="CC10" s="45"/>
-      <c r="CD10" s="46">
-        <v>0</v>
-      </c>
-      <c r="CE10" s="44"/>
-      <c r="CF10" s="45"/>
-      <c r="CG10" s="46">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="44"/>
-      <c r="CI10" s="45"/>
-      <c r="CJ10" s="46">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="44"/>
-      <c r="CL10" s="45"/>
-      <c r="CM10" s="46">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="44"/>
-      <c r="CO10" s="45"/>
-      <c r="CP10" s="46">
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="44"/>
-      <c r="CR10" s="45"/>
+      <c r="BQ10" s="61"/>
+      <c r="BR10" s="61"/>
+      <c r="BS10" s="61"/>
+      <c r="BT10" s="62"/>
+      <c r="BU10" s="68">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="61"/>
+      <c r="BW10" s="62"/>
+      <c r="BX10" s="68">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="61"/>
+      <c r="BZ10" s="62"/>
+      <c r="CA10" s="68">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="61"/>
+      <c r="CC10" s="62"/>
+      <c r="CD10" s="68">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="61"/>
+      <c r="CF10" s="62"/>
+      <c r="CG10" s="68">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="61"/>
+      <c r="CI10" s="62"/>
+      <c r="CJ10" s="68">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="61"/>
+      <c r="CL10" s="62"/>
+      <c r="CM10" s="68">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="61"/>
+      <c r="CO10" s="62"/>
+      <c r="CP10" s="68">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="61"/>
+      <c r="CR10" s="62"/>
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.3">
       <c r="O23" s="17" t="s">
@@ -1945,41 +1945,41 @@
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
       <c r="O27" s="18"/>
-      <c r="P27" s="49">
+      <c r="P27" s="56">
         <v>2</v>
       </c>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="49">
+      <c r="W27" s="56">
         <v>1</v>
       </c>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="49"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
       <c r="AC27" s="25"/>
-      <c r="AD27" s="49">
+      <c r="AD27" s="56">
         <v>2</v>
       </c>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="25"/>
-      <c r="AK27" s="49">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
+      <c r="AK27" s="56">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
       <c r="BP27" s="10"/>
       <c r="BQ27" s="9"/>
       <c r="BR27" s="9"/>
@@ -2017,41 +2017,41 @@
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
       <c r="O28" s="18"/>
-      <c r="P28" s="48">
+      <c r="P28" s="57">
         <v>10</v>
       </c>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
       <c r="V28" s="26"/>
-      <c r="W28" s="48">
+      <c r="W28" s="57">
         <v>10</v>
       </c>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
       <c r="AC28" s="26"/>
-      <c r="AD28" s="48">
+      <c r="AD28" s="57">
         <v>10</v>
       </c>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="26"/>
-      <c r="AK28" s="48">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
+      <c r="AK28" s="57">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
     </row>
     <row r="29" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -2123,11 +2123,11 @@
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
-      <c r="L30" s="68" t="s">
+      <c r="L30" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
       <c r="O30" s="19"/>
       <c r="P30" s="37" t="s">
         <v>13</v>
@@ -2171,49 +2171,49 @@
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
       <c r="O31" s="19"/>
-      <c r="P31" s="50">
+      <c r="P31" s="55">
         <f>IF(P30="Caso 1",IF(P28=0,0,P27/P28),IF(P28=0,0,(3/4)*P27/P28))</f>
         <v>0.2</v>
       </c>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
       <c r="V31" s="18"/>
-      <c r="W31" s="50">
+      <c r="W31" s="55">
         <f t="shared" ref="W31" si="0">IF(W30="Caso 1",IF(W28=0,0,W27/W28),IF(W28=0,0,(3/4)*W27/W28))</f>
         <v>0.1</v>
       </c>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="50"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
       <c r="AC31" s="18"/>
-      <c r="AD31" s="50">
+      <c r="AD31" s="55">
         <f t="shared" ref="AD31" si="1">IF(AD30="Caso 1",IF(AD28=0,0,AD27/AD28),IF(AD28=0,0,(3/4)*AD27/AD28))</f>
         <v>0.2</v>
       </c>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="50"/>
-      <c r="AH31" s="50"/>
-      <c r="AI31" s="50"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
       <c r="AJ31" s="18"/>
-      <c r="AK31" s="50">
+      <c r="AK31" s="55">
         <f t="shared" ref="AK31" si="2">IF(AK30="Caso 1",IF(AK28=0,0,AK27/AK28),IF(AK28=0,0,(3/4)*AK27/AK28))</f>
         <v>0</v>
       </c>
-      <c r="AL31" s="50"/>
-      <c r="AM31" s="50"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -2284,12 +2284,12 @@
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
-      <c r="K33" s="57" t="s">
+      <c r="K33" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
       <c r="O33" s="19"/>
       <c r="P33" s="37" t="s">
         <v>0</v>
@@ -2336,10 +2336,10 @@
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
       <c r="O34" s="19"/>
       <c r="P34" s="37">
         <f>IF(P30="Caso 1",0,1)</f>
@@ -2399,12 +2399,12 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
       <c r="V35" s="18"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
@@ -2494,99 +2494,99 @@
       </c>
       <c r="M37" s="37"/>
       <c r="N37" s="37"/>
-      <c r="P37" s="38">
+      <c r="P37" s="40">
         <v>2000</v>
       </c>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
       <c r="V37" s="18"/>
-      <c r="W37" s="38">
+      <c r="W37" s="40">
         <v>10000</v>
       </c>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
       <c r="AC37" s="18"/>
-      <c r="AD37" s="38">
+      <c r="AD37" s="40">
         <v>1000</v>
       </c>
-      <c r="AE37" s="38"/>
-      <c r="AF37" s="38"/>
-      <c r="AG37" s="38"/>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="38"/>
+      <c r="AE37" s="40"/>
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="40"/>
+      <c r="AI37" s="40"/>
       <c r="AJ37" s="18"/>
-      <c r="AK37" s="38"/>
-      <c r="AL37" s="38"/>
-      <c r="AM37" s="38"/>
-      <c r="AN37" s="38"/>
-      <c r="AO37" s="38"/>
-      <c r="AP37" s="38"/>
+      <c r="AK37" s="40"/>
+      <c r="AL37" s="40"/>
+      <c r="AM37" s="40"/>
+      <c r="AN37" s="40"/>
+      <c r="AO37" s="40"/>
+      <c r="AP37" s="40"/>
     </row>
     <row r="38" spans="1:63" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P38" s="57" t="s">
+      <c r="P38" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57" t="s">
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
       <c r="V38" s="27"/>
-      <c r="W38" s="57" t="s">
+      <c r="W38" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="X38" s="57"/>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="57" t="s">
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AA38" s="57"/>
-      <c r="AB38" s="57"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
       <c r="AC38" s="27"/>
-      <c r="AD38" s="57" t="s">
+      <c r="AD38" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57" t="s">
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AH38" s="57"/>
-      <c r="AI38" s="57"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
       <c r="AJ38" s="27"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
       <c r="AM38" s="14"/>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
       <c r="V39" s="27"/>
-      <c r="W39" s="57"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="57"/>
-      <c r="AA39" s="57"/>
-      <c r="AB39" s="57"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="42"/>
       <c r="AC39" s="27"/>
-      <c r="AD39" s="57"/>
-      <c r="AE39" s="57"/>
-      <c r="AF39" s="57"/>
-      <c r="AG39" s="57"/>
-      <c r="AH39" s="57"/>
-      <c r="AI39" s="57"/>
+      <c r="AD39" s="42"/>
+      <c r="AE39" s="42"/>
+      <c r="AF39" s="42"/>
+      <c r="AG39" s="42"/>
+      <c r="AH39" s="42"/>
+      <c r="AI39" s="42"/>
       <c r="AJ39" s="27"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
@@ -2640,74 +2640,74 @@
       <c r="L42" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="60" t="s">
+      <c r="O42" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="63" t="s">
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64"/>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="63" t="s">
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="64"/>
-      <c r="AD42" s="64"/>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="65"/>
-      <c r="AG42" s="63" t="s">
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AH42" s="64"/>
-      <c r="AI42" s="64"/>
-      <c r="AJ42" s="65"/>
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50"/>
+      <c r="AJ42" s="51"/>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.3">
       <c r="L43" t="s">
         <v>33</v>
       </c>
       <c r="O43" s="20"/>
-      <c r="P43" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59" t="s">
+      <c r="P43" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
       <c r="V43" s="28"/>
-      <c r="W43" s="59" t="s">
+      <c r="W43" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="59" t="s">
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="AA43" s="59"/>
-      <c r="AB43" s="59"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
       <c r="AC43" s="28"/>
-      <c r="AD43" s="59" t="s">
+      <c r="AD43" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AE43" s="59"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="59" t="s">
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AH43" s="59"/>
-      <c r="AI43" s="59"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
       <c r="AJ43" s="31"/>
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.3">
@@ -2715,7 +2715,7 @@
         <v>34</v>
       </c>
       <c r="O44" s="21"/>
-      <c r="P44" s="66">
+      <c r="P44" s="52">
         <f>P34</f>
         <v>0</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>35</v>
       </c>
       <c r="O45" s="21"/>
-      <c r="P45" s="66">
+      <c r="P45" s="52">
         <f>P40</f>
         <v>-16666.666666666668</v>
       </c>
@@ -2805,44 +2805,44 @@
         <v>36</v>
       </c>
       <c r="O46" s="22"/>
-      <c r="P46" s="41">
+      <c r="P46" s="44">
         <f>-SUM(P45)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41">
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44">
         <f>-SUM(S45:Y45)*$S$44</f>
         <v>-2777.7777777777783</v>
       </c>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
       <c r="V46" s="29"/>
-      <c r="W46" s="41">
+      <c r="W46" s="44">
         <f>-SUM(S45:Y45)*$W$44</f>
         <v>-1388.8888888888891</v>
       </c>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="41">
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44">
         <f>-SUM(Z45:AF45)*$Z$44</f>
         <v>-1388.8888888888887</v>
       </c>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="41"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
       <c r="AC46" s="29"/>
-      <c r="AD46" s="41">
+      <c r="AD46" s="44">
         <f>-SUM(Z45:AF45)*$AD$44</f>
         <v>-2777.7777777777774</v>
       </c>
-      <c r="AE46" s="41"/>
-      <c r="AF46" s="41"/>
-      <c r="AG46" s="41">
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44">
         <f>-SUM(AG45)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH46" s="41"/>
-      <c r="AI46" s="41"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
       <c r="AJ46" s="33"/>
     </row>
     <row r="47" spans="1:63" x14ac:dyDescent="0.3">
@@ -2850,44 +2850,44 @@
         <v>37</v>
       </c>
       <c r="O47" s="23"/>
-      <c r="P47" s="40">
+      <c r="P47" s="43">
         <f>0.5*S46</f>
         <v>-1388.8888888888891</v>
       </c>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40">
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43">
         <f>0.5*P46</f>
         <v>0</v>
       </c>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
       <c r="V47" s="30"/>
-      <c r="W47" s="40">
+      <c r="W47" s="43">
         <f>0.5*Z46</f>
         <v>-694.44444444444434</v>
       </c>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40">
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43">
         <f>0.5*W46</f>
         <v>-694.44444444444457</v>
       </c>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
+      <c r="AA47" s="43"/>
+      <c r="AB47" s="43"/>
       <c r="AC47" s="30"/>
-      <c r="AD47" s="40">
+      <c r="AD47" s="43">
         <f>0.5*AG46</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="40"/>
-      <c r="AF47" s="40"/>
-      <c r="AG47" s="40">
+      <c r="AE47" s="43"/>
+      <c r="AF47" s="43"/>
+      <c r="AG47" s="43">
         <f>0.5*AD46</f>
         <v>-1388.8888888888887</v>
       </c>
-      <c r="AH47" s="40"/>
-      <c r="AI47" s="40"/>
+      <c r="AH47" s="43"/>
+      <c r="AI47" s="43"/>
       <c r="AJ47" s="34"/>
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.3">
@@ -2895,44 +2895,44 @@
         <v>38</v>
       </c>
       <c r="O48" s="24"/>
-      <c r="P48" s="39">
+      <c r="P48" s="45">
         <f t="shared" ref="P48" si="3">-SUM(P47)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39">
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45">
         <f t="shared" ref="S48" si="4">-SUM(S47:Y47)*$S$44</f>
         <v>462.96296296296288</v>
       </c>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
       <c r="V48" s="18"/>
-      <c r="W48" s="39">
+      <c r="W48" s="45">
         <f t="shared" ref="W48" si="5">-SUM(S47:Y47)*$W$44</f>
         <v>231.48148148148144</v>
       </c>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39">
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45">
         <f t="shared" ref="Z48" si="6">-SUM(Z47:AF47)*$Z$44</f>
         <v>231.48148148148152</v>
       </c>
-      <c r="AA48" s="39"/>
-      <c r="AB48" s="39"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
       <c r="AC48" s="18"/>
-      <c r="AD48" s="39">
+      <c r="AD48" s="45">
         <f t="shared" ref="AD48" si="7">-SUM(Z47:AF47)*$AD$44</f>
         <v>462.96296296296305</v>
       </c>
-      <c r="AE48" s="39"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="39">
+      <c r="AE48" s="45"/>
+      <c r="AF48" s="45"/>
+      <c r="AG48" s="45">
         <f t="shared" ref="AG48" si="8">-SUM(AG47)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH48" s="39"/>
-      <c r="AI48" s="39"/>
+      <c r="AH48" s="45"/>
+      <c r="AI48" s="45"/>
       <c r="AJ48" s="35"/>
       <c r="AK48" s="37"/>
       <c r="AL48" s="37"/>
@@ -2943,44 +2943,44 @@
         <v>39</v>
       </c>
       <c r="O49" s="23"/>
-      <c r="P49" s="40">
+      <c r="P49" s="43">
         <f t="shared" ref="P49" si="9">0.5*S48</f>
         <v>231.48148148148144</v>
       </c>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40">
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43">
         <f t="shared" ref="S49" si="10">0.5*P48</f>
         <v>0</v>
       </c>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
       <c r="V49" s="30"/>
-      <c r="W49" s="40">
+      <c r="W49" s="43">
         <f t="shared" ref="W49" si="11">0.5*Z48</f>
         <v>115.74074074074076</v>
       </c>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40">
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="43">
         <f t="shared" ref="Z49" si="12">0.5*W48</f>
         <v>115.74074074074072</v>
       </c>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="40"/>
+      <c r="AA49" s="43"/>
+      <c r="AB49" s="43"/>
       <c r="AC49" s="30"/>
-      <c r="AD49" s="40">
+      <c r="AD49" s="43">
         <f t="shared" ref="AD49" si="13">0.5*AG48</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="40"/>
-      <c r="AF49" s="40"/>
-      <c r="AG49" s="40">
+      <c r="AE49" s="43"/>
+      <c r="AF49" s="43"/>
+      <c r="AG49" s="43">
         <f t="shared" ref="AG49" si="14">0.5*AD48</f>
         <v>231.48148148148152</v>
       </c>
-      <c r="AH49" s="40"/>
-      <c r="AI49" s="40"/>
+      <c r="AH49" s="43"/>
+      <c r="AI49" s="43"/>
       <c r="AJ49" s="34"/>
       <c r="AK49" s="37"/>
       <c r="AL49" s="37"/>
@@ -2991,44 +2991,44 @@
         <v>40</v>
       </c>
       <c r="O50" s="22"/>
-      <c r="P50" s="41">
+      <c r="P50" s="44">
         <f t="shared" ref="P50" si="15">-SUM(P49)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41">
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44">
         <f t="shared" ref="S50" si="16">-SUM(S49:Y49)*$S$44</f>
         <v>-77.160493827160508</v>
       </c>
-      <c r="T50" s="41"/>
-      <c r="U50" s="41"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
       <c r="V50" s="29"/>
-      <c r="W50" s="41">
+      <c r="W50" s="44">
         <f t="shared" ref="W50" si="17">-SUM(S49:Y49)*$W$44</f>
         <v>-38.580246913580254</v>
       </c>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="41">
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44">
         <f t="shared" ref="Z50" si="18">-SUM(Z49:AF49)*$Z$44</f>
         <v>-38.58024691358024</v>
       </c>
-      <c r="AA50" s="41"/>
-      <c r="AB50" s="41"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
       <c r="AC50" s="29"/>
-      <c r="AD50" s="41">
+      <c r="AD50" s="44">
         <f t="shared" ref="AD50" si="19">-SUM(Z49:AF49)*$AD$44</f>
         <v>-77.160493827160479</v>
       </c>
-      <c r="AE50" s="41"/>
-      <c r="AF50" s="41"/>
-      <c r="AG50" s="41">
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44">
         <f t="shared" ref="AG50" si="20">-SUM(AG49)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH50" s="41"/>
-      <c r="AI50" s="41"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
       <c r="AJ50" s="33"/>
       <c r="AK50" s="37"/>
       <c r="AL50" s="37"/>
@@ -3039,44 +3039,44 @@
         <v>41</v>
       </c>
       <c r="O51" s="24"/>
-      <c r="P51" s="42">
+      <c r="P51" s="53">
         <f t="shared" ref="P51" si="21">0.5*S50</f>
         <v>-38.580246913580254</v>
       </c>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42">
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53">
         <f t="shared" ref="S51" si="22">0.5*P50</f>
         <v>0</v>
       </c>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
       <c r="V51" s="18"/>
-      <c r="W51" s="42">
+      <c r="W51" s="53">
         <f t="shared" ref="W51" si="23">0.5*Z50</f>
         <v>-19.29012345679012</v>
       </c>
-      <c r="X51" s="42"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="42">
+      <c r="X51" s="53"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="53">
         <f t="shared" ref="Z51" si="24">0.5*W50</f>
         <v>-19.290123456790127</v>
       </c>
-      <c r="AA51" s="42"/>
-      <c r="AB51" s="42"/>
+      <c r="AA51" s="53"/>
+      <c r="AB51" s="53"/>
       <c r="AC51" s="18"/>
-      <c r="AD51" s="42">
+      <c r="AD51" s="53">
         <f t="shared" ref="AD51" si="25">0.5*AG50</f>
         <v>0</v>
       </c>
-      <c r="AE51" s="42"/>
-      <c r="AF51" s="42"/>
-      <c r="AG51" s="42">
+      <c r="AE51" s="53"/>
+      <c r="AF51" s="53"/>
+      <c r="AG51" s="53">
         <f t="shared" ref="AG51" si="26">0.5*AD50</f>
         <v>-38.58024691358024</v>
       </c>
-      <c r="AH51" s="42"/>
-      <c r="AI51" s="42"/>
+      <c r="AH51" s="53"/>
+      <c r="AI51" s="53"/>
       <c r="AJ51" s="35"/>
       <c r="AK51" s="37"/>
       <c r="AL51" s="37"/>
@@ -3087,44 +3087,44 @@
         <v>42</v>
       </c>
       <c r="O52" s="22"/>
-      <c r="P52" s="41">
+      <c r="P52" s="44">
         <f t="shared" ref="P52" si="27">-SUM(P51)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41">
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44">
         <f t="shared" ref="S52" si="28">-SUM(S51:Y51)*$S$44</f>
         <v>12.860082304526745</v>
       </c>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
       <c r="V52" s="29"/>
-      <c r="W52" s="41">
+      <c r="W52" s="44">
         <f t="shared" ref="W52" si="29">-SUM(S51:Y51)*$W$44</f>
         <v>6.4300411522633727</v>
       </c>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="41"/>
-      <c r="Z52" s="41">
+      <c r="X52" s="44"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44">
         <f t="shared" ref="Z52" si="30">-SUM(Z51:AF51)*$Z$44</f>
         <v>6.4300411522633754</v>
       </c>
-      <c r="AA52" s="41"/>
-      <c r="AB52" s="41"/>
+      <c r="AA52" s="44"/>
+      <c r="AB52" s="44"/>
       <c r="AC52" s="29"/>
-      <c r="AD52" s="41">
+      <c r="AD52" s="44">
         <f t="shared" ref="AD52" si="31">-SUM(Z51:AF51)*$AD$44</f>
         <v>12.860082304526751</v>
       </c>
-      <c r="AE52" s="41"/>
-      <c r="AF52" s="41"/>
-      <c r="AG52" s="41">
+      <c r="AE52" s="44"/>
+      <c r="AF52" s="44"/>
+      <c r="AG52" s="44">
         <f t="shared" ref="AG52" si="32">-SUM(AG51)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH52" s="41"/>
-      <c r="AI52" s="41"/>
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="44"/>
       <c r="AJ52" s="33"/>
       <c r="AK52" s="37"/>
       <c r="AL52" s="37"/>
@@ -3135,44 +3135,44 @@
         <v>43</v>
       </c>
       <c r="O53" s="23"/>
-      <c r="P53" s="40">
+      <c r="P53" s="43">
         <f t="shared" ref="P53" si="33">0.5*S52</f>
         <v>6.4300411522633727</v>
       </c>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40">
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43">
         <f t="shared" ref="S53" si="34">0.5*P52</f>
         <v>0</v>
       </c>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
       <c r="V53" s="30"/>
-      <c r="W53" s="40">
+      <c r="W53" s="43">
         <f t="shared" ref="W53" si="35">0.5*Z52</f>
         <v>3.2150205761316877</v>
       </c>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40">
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43">
         <f t="shared" ref="Z53" si="36">0.5*W52</f>
         <v>3.2150205761316863</v>
       </c>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="40"/>
+      <c r="AA53" s="43"/>
+      <c r="AB53" s="43"/>
       <c r="AC53" s="30"/>
-      <c r="AD53" s="40">
+      <c r="AD53" s="43">
         <f t="shared" ref="AD53" si="37">0.5*AG52</f>
         <v>0</v>
       </c>
-      <c r="AE53" s="40"/>
-      <c r="AF53" s="40"/>
-      <c r="AG53" s="40">
+      <c r="AE53" s="43"/>
+      <c r="AF53" s="43"/>
+      <c r="AG53" s="43">
         <f t="shared" ref="AG53" si="38">0.5*AD52</f>
         <v>6.4300411522633754</v>
       </c>
-      <c r="AH53" s="40"/>
-      <c r="AI53" s="40"/>
+      <c r="AH53" s="43"/>
+      <c r="AI53" s="43"/>
       <c r="AJ53" s="34"/>
       <c r="AK53" s="37"/>
       <c r="AL53" s="37"/>
@@ -3183,44 +3183,44 @@
         <v>44</v>
       </c>
       <c r="O54" s="22"/>
-      <c r="P54" s="41">
+      <c r="P54" s="44">
         <f t="shared" ref="P54" si="39">-SUM(P53)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="41">
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44">
         <f t="shared" ref="S54" si="40">-SUM(S53:Y53)*$S$44</f>
         <v>-2.1433470507544583</v>
       </c>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
       <c r="V54" s="29"/>
-      <c r="W54" s="41">
+      <c r="W54" s="44">
         <f t="shared" ref="W54" si="41">-SUM(S53:Y53)*$W$44</f>
         <v>-1.0716735253772292</v>
       </c>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41">
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="44">
         <f t="shared" ref="Z54" si="42">-SUM(Z53:AF53)*$Z$44</f>
         <v>-1.0716735253772287</v>
       </c>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="41"/>
+      <c r="AA54" s="44"/>
+      <c r="AB54" s="44"/>
       <c r="AC54" s="29"/>
-      <c r="AD54" s="41">
+      <c r="AD54" s="44">
         <f t="shared" ref="AD54" si="43">-SUM(Z53:AF53)*$AD$44</f>
         <v>-2.1433470507544574</v>
       </c>
-      <c r="AE54" s="41"/>
-      <c r="AF54" s="41"/>
-      <c r="AG54" s="41">
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="44">
         <f t="shared" ref="AG54" si="44">-SUM(AG53)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH54" s="41"/>
-      <c r="AI54" s="41"/>
+      <c r="AH54" s="44"/>
+      <c r="AI54" s="44"/>
       <c r="AJ54" s="33"/>
       <c r="AK54" s="37"/>
       <c r="AL54" s="37"/>
@@ -3231,44 +3231,44 @@
         <v>45</v>
       </c>
       <c r="O55" s="23"/>
-      <c r="P55" s="40">
+      <c r="P55" s="43">
         <f t="shared" ref="P55" si="45">0.5*S54</f>
         <v>-1.0716735253772292</v>
       </c>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40">
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43">
         <f t="shared" ref="S55" si="46">0.5*P54</f>
         <v>0</v>
       </c>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
       <c r="V55" s="30"/>
-      <c r="W55" s="40">
+      <c r="W55" s="43">
         <f t="shared" ref="W55" si="47">0.5*Z54</f>
         <v>-0.53583676268861435</v>
       </c>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="40">
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43">
         <f t="shared" ref="Z55" si="48">0.5*W54</f>
         <v>-0.53583676268861458</v>
       </c>
-      <c r="AA55" s="40"/>
-      <c r="AB55" s="40"/>
+      <c r="AA55" s="43"/>
+      <c r="AB55" s="43"/>
       <c r="AC55" s="30"/>
-      <c r="AD55" s="40">
+      <c r="AD55" s="43">
         <f t="shared" ref="AD55" si="49">0.5*AG54</f>
         <v>0</v>
       </c>
-      <c r="AE55" s="40"/>
-      <c r="AF55" s="40"/>
-      <c r="AG55" s="40">
+      <c r="AE55" s="43"/>
+      <c r="AF55" s="43"/>
+      <c r="AG55" s="43">
         <f t="shared" ref="AG55" si="50">0.5*AD54</f>
         <v>-1.0716735253772287</v>
       </c>
-      <c r="AH55" s="40"/>
-      <c r="AI55" s="40"/>
+      <c r="AH55" s="43"/>
+      <c r="AI55" s="43"/>
       <c r="AJ55" s="34"/>
       <c r="AK55" s="37"/>
       <c r="AL55" s="37"/>
@@ -3279,44 +3279,44 @@
         <v>46</v>
       </c>
       <c r="O56" s="22"/>
-      <c r="P56" s="41">
+      <c r="P56" s="44">
         <f t="shared" ref="P56" si="51">-SUM(P55)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41">
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44">
         <f t="shared" ref="S56" si="52">-SUM(S55:Y55)*$S$44</f>
         <v>0.35722450845907622</v>
       </c>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
       <c r="V56" s="29"/>
-      <c r="W56" s="41">
+      <c r="W56" s="44">
         <f t="shared" ref="W56" si="53">-SUM(S55:Y55)*$W$44</f>
         <v>0.17861225422953811</v>
       </c>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="41"/>
-      <c r="Z56" s="41">
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="44">
         <f t="shared" ref="Z56" si="54">-SUM(Z55:AF55)*$Z$44</f>
         <v>0.17861225422953819</v>
       </c>
-      <c r="AA56" s="41"/>
-      <c r="AB56" s="41"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="44"/>
       <c r="AC56" s="29"/>
-      <c r="AD56" s="41">
+      <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="55">-SUM(Z55:AF55)*$AD$44</f>
         <v>0.35722450845907638</v>
       </c>
-      <c r="AE56" s="41"/>
-      <c r="AF56" s="41"/>
-      <c r="AG56" s="41">
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="44"/>
+      <c r="AG56" s="44">
         <f t="shared" ref="AG56" si="56">-SUM(AG55)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH56" s="41"/>
-      <c r="AI56" s="41"/>
+      <c r="AH56" s="44"/>
+      <c r="AI56" s="44"/>
       <c r="AJ56" s="33"/>
       <c r="AK56" s="37"/>
       <c r="AL56" s="37"/>
@@ -3327,44 +3327,44 @@
         <v>47</v>
       </c>
       <c r="O57" s="23"/>
-      <c r="P57" s="40">
+      <c r="P57" s="43">
         <f t="shared" ref="P57" si="57">0.5*S56</f>
         <v>0.17861225422953811</v>
       </c>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40">
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43">
         <f t="shared" ref="S57" si="58">0.5*P56</f>
         <v>0</v>
       </c>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
       <c r="V57" s="30"/>
-      <c r="W57" s="40">
+      <c r="W57" s="43">
         <f t="shared" ref="W57" si="59">0.5*Z56</f>
         <v>8.9306127114769096E-2</v>
       </c>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40">
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43">
         <f t="shared" ref="Z57" si="60">0.5*W56</f>
         <v>8.9306127114769054E-2</v>
       </c>
-      <c r="AA57" s="40"/>
-      <c r="AB57" s="40"/>
+      <c r="AA57" s="43"/>
+      <c r="AB57" s="43"/>
       <c r="AC57" s="30"/>
-      <c r="AD57" s="40">
+      <c r="AD57" s="43">
         <f t="shared" ref="AD57" si="61">0.5*AG56</f>
         <v>0</v>
       </c>
-      <c r="AE57" s="40"/>
-      <c r="AF57" s="40"/>
-      <c r="AG57" s="40">
+      <c r="AE57" s="43"/>
+      <c r="AF57" s="43"/>
+      <c r="AG57" s="43">
         <f t="shared" ref="AG57" si="62">0.5*AD56</f>
         <v>0.17861225422953819</v>
       </c>
-      <c r="AH57" s="40"/>
-      <c r="AI57" s="40"/>
+      <c r="AH57" s="43"/>
+      <c r="AI57" s="43"/>
       <c r="AJ57" s="34"/>
       <c r="AK57" s="37"/>
       <c r="AL57" s="37"/>
@@ -3375,44 +3375,44 @@
         <v>48</v>
       </c>
       <c r="O58" s="22"/>
-      <c r="P58" s="41">
+      <c r="P58" s="44">
         <f t="shared" ref="P58" si="63">-SUM(P57)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41">
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44">
         <f t="shared" ref="S58" si="64">-SUM(S57:Y57)*$S$44</f>
         <v>-5.9537418076512728E-2</v>
       </c>
-      <c r="T58" s="41"/>
-      <c r="U58" s="41"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
       <c r="V58" s="29"/>
-      <c r="W58" s="41">
+      <c r="W58" s="44">
         <f t="shared" ref="W58" si="65">-SUM(S57:Y57)*$W$44</f>
         <v>-2.9768709038256364E-2</v>
       </c>
-      <c r="X58" s="41"/>
-      <c r="Y58" s="41"/>
-      <c r="Z58" s="41">
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44">
         <f t="shared" ref="Z58" si="66">-SUM(Z57:AF57)*$Z$44</f>
         <v>-2.976870903825635E-2</v>
       </c>
-      <c r="AA58" s="41"/>
-      <c r="AB58" s="41"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="44"/>
       <c r="AC58" s="29"/>
-      <c r="AD58" s="41">
+      <c r="AD58" s="44">
         <f t="shared" ref="AD58" si="67">-SUM(Z57:AF57)*$AD$44</f>
         <v>-5.9537418076512701E-2</v>
       </c>
-      <c r="AE58" s="41"/>
-      <c r="AF58" s="41"/>
-      <c r="AG58" s="41">
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44">
         <f t="shared" ref="AG58" si="68">-SUM(AG57)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="41"/>
-      <c r="AI58" s="41"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="44"/>
       <c r="AJ58" s="33"/>
       <c r="AK58" s="37"/>
       <c r="AL58" s="37"/>
@@ -3423,44 +3423,44 @@
         <v>49</v>
       </c>
       <c r="O59" s="23"/>
-      <c r="P59" s="40">
+      <c r="P59" s="43">
         <f t="shared" ref="P59" si="69">0.5*S58</f>
         <v>-2.9768709038256364E-2</v>
       </c>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40">
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43">
         <f t="shared" ref="S59" si="70">0.5*P58</f>
         <v>0</v>
       </c>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
       <c r="V59" s="30"/>
-      <c r="W59" s="40">
+      <c r="W59" s="43">
         <f t="shared" ref="W59" si="71">0.5*Z58</f>
         <v>-1.4884354519128175E-2</v>
       </c>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
-      <c r="Z59" s="40">
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43">
         <f t="shared" ref="Z59" si="72">0.5*W58</f>
         <v>-1.4884354519128182E-2</v>
       </c>
-      <c r="AA59" s="40"/>
-      <c r="AB59" s="40"/>
+      <c r="AA59" s="43"/>
+      <c r="AB59" s="43"/>
       <c r="AC59" s="30"/>
-      <c r="AD59" s="40">
+      <c r="AD59" s="43">
         <f t="shared" ref="AD59" si="73">0.5*AG58</f>
         <v>0</v>
       </c>
-      <c r="AE59" s="40"/>
-      <c r="AF59" s="40"/>
-      <c r="AG59" s="40">
+      <c r="AE59" s="43"/>
+      <c r="AF59" s="43"/>
+      <c r="AG59" s="43">
         <f t="shared" ref="AG59" si="74">0.5*AD58</f>
         <v>-2.976870903825635E-2</v>
       </c>
-      <c r="AH59" s="40"/>
-      <c r="AI59" s="40"/>
+      <c r="AH59" s="43"/>
+      <c r="AI59" s="43"/>
       <c r="AJ59" s="34"/>
       <c r="AK59" s="37"/>
       <c r="AL59" s="37"/>
@@ -3471,44 +3471,44 @@
         <v>50</v>
       </c>
       <c r="O60" s="22"/>
-      <c r="P60" s="41">
+      <c r="P60" s="44">
         <f t="shared" ref="P60" si="75">-SUM(P59)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41">
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44">
         <f t="shared" ref="S60" si="76">-SUM(S59:Y59)*$S$44</f>
         <v>9.9229030127521156E-3</v>
       </c>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
       <c r="V60" s="29"/>
-      <c r="W60" s="41">
+      <c r="W60" s="44">
         <f t="shared" ref="W60" si="77">-SUM(S59:Y59)*$W$44</f>
         <v>4.9614515063760578E-3</v>
       </c>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="41">
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44">
         <f t="shared" ref="Z60" si="78">-SUM(Z59:AF59)*$Z$44</f>
         <v>4.9614515063760604E-3</v>
       </c>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="41"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="44"/>
       <c r="AC60" s="29"/>
-      <c r="AD60" s="41">
+      <c r="AD60" s="44">
         <f t="shared" ref="AD60" si="79">-SUM(Z59:AF59)*$AD$44</f>
         <v>9.9229030127521208E-3</v>
       </c>
-      <c r="AE60" s="41"/>
-      <c r="AF60" s="41"/>
-      <c r="AG60" s="41">
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="44">
         <f t="shared" ref="AG60" si="80">-SUM(AG59)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH60" s="41"/>
-      <c r="AI60" s="41"/>
+      <c r="AH60" s="44"/>
+      <c r="AI60" s="44"/>
       <c r="AJ60" s="33"/>
       <c r="AK60" s="37"/>
       <c r="AL60" s="37"/>
@@ -3519,44 +3519,44 @@
         <v>51</v>
       </c>
       <c r="O61" s="23"/>
-      <c r="P61" s="40">
+      <c r="P61" s="43">
         <f t="shared" ref="P61" si="81">0.5*S60</f>
         <v>4.9614515063760578E-3</v>
       </c>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40">
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43">
         <f t="shared" ref="S61" si="82">0.5*P60</f>
         <v>0</v>
       </c>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
       <c r="V61" s="30"/>
-      <c r="W61" s="40">
+      <c r="W61" s="43">
         <f t="shared" ref="W61" si="83">0.5*Z60</f>
         <v>2.4807257531880302E-3</v>
       </c>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40">
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="43">
         <f t="shared" ref="Z61" si="84">0.5*W60</f>
         <v>2.4807257531880289E-3</v>
       </c>
-      <c r="AA61" s="40"/>
-      <c r="AB61" s="40"/>
+      <c r="AA61" s="43"/>
+      <c r="AB61" s="43"/>
       <c r="AC61" s="30"/>
-      <c r="AD61" s="40">
+      <c r="AD61" s="43">
         <f t="shared" ref="AD61" si="85">0.5*AG60</f>
         <v>0</v>
       </c>
-      <c r="AE61" s="40"/>
-      <c r="AF61" s="40"/>
-      <c r="AG61" s="40">
+      <c r="AE61" s="43"/>
+      <c r="AF61" s="43"/>
+      <c r="AG61" s="43">
         <f t="shared" ref="AG61" si="86">0.5*AD60</f>
         <v>4.9614515063760604E-3</v>
       </c>
-      <c r="AH61" s="40"/>
-      <c r="AI61" s="40"/>
+      <c r="AH61" s="43"/>
+      <c r="AI61" s="43"/>
       <c r="AJ61" s="34"/>
       <c r="AK61" s="37"/>
       <c r="AL61" s="37"/>
@@ -3567,44 +3567,44 @@
         <v>52</v>
       </c>
       <c r="O62" s="22"/>
-      <c r="P62" s="41">
+      <c r="P62" s="44">
         <f t="shared" ref="P62" si="87">-SUM(P61)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41">
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44">
         <f t="shared" ref="S62" si="88">-SUM(S61:Y61)*$S$44</f>
         <v>-1.65381716879202E-3</v>
       </c>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
       <c r="V62" s="29"/>
-      <c r="W62" s="41">
+      <c r="W62" s="44">
         <f t="shared" ref="W62" si="89">-SUM(S61:Y61)*$W$44</f>
         <v>-8.2690858439601E-4</v>
       </c>
-      <c r="X62" s="41"/>
-      <c r="Y62" s="41"/>
-      <c r="Z62" s="41">
+      <c r="X62" s="44"/>
+      <c r="Y62" s="44"/>
+      <c r="Z62" s="44">
         <f t="shared" ref="Z62" si="90">-SUM(Z61:AF61)*$Z$44</f>
         <v>-8.2690858439600956E-4</v>
       </c>
-      <c r="AA62" s="41"/>
-      <c r="AB62" s="41"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="44"/>
       <c r="AC62" s="29"/>
-      <c r="AD62" s="41">
+      <c r="AD62" s="44">
         <f t="shared" ref="AD62" si="91">-SUM(Z61:AF61)*$AD$44</f>
         <v>-1.6538171687920191E-3</v>
       </c>
-      <c r="AE62" s="41"/>
-      <c r="AF62" s="41"/>
-      <c r="AG62" s="41">
+      <c r="AE62" s="44"/>
+      <c r="AF62" s="44"/>
+      <c r="AG62" s="44">
         <f t="shared" ref="AG62" si="92">-SUM(AG61)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH62" s="41"/>
-      <c r="AI62" s="41"/>
+      <c r="AH62" s="44"/>
+      <c r="AI62" s="44"/>
       <c r="AJ62" s="33"/>
       <c r="AK62" s="37"/>
       <c r="AL62" s="37"/>
@@ -3615,44 +3615,44 @@
         <v>53</v>
       </c>
       <c r="O63" s="23"/>
-      <c r="P63" s="40">
+      <c r="P63" s="43">
         <f t="shared" ref="P63" si="93">0.5*S62</f>
         <v>-8.2690858439601E-4</v>
       </c>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40">
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43">
         <f t="shared" ref="S63" si="94">0.5*P62</f>
         <v>0</v>
       </c>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
       <c r="V63" s="30"/>
-      <c r="W63" s="40">
+      <c r="W63" s="43">
         <f t="shared" ref="W63" si="95">0.5*Z62</f>
         <v>-4.1345429219800478E-4</v>
       </c>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40">
+      <c r="X63" s="43"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="43">
         <f t="shared" ref="Z63" si="96">0.5*W62</f>
         <v>-4.13454292198005E-4</v>
       </c>
-      <c r="AA63" s="40"/>
-      <c r="AB63" s="40"/>
+      <c r="AA63" s="43"/>
+      <c r="AB63" s="43"/>
       <c r="AC63" s="30"/>
-      <c r="AD63" s="40">
+      <c r="AD63" s="43">
         <f t="shared" ref="AD63" si="97">0.5*AG62</f>
         <v>0</v>
       </c>
-      <c r="AE63" s="40"/>
-      <c r="AF63" s="40"/>
-      <c r="AG63" s="40">
+      <c r="AE63" s="43"/>
+      <c r="AF63" s="43"/>
+      <c r="AG63" s="43">
         <f t="shared" ref="AG63" si="98">0.5*AD62</f>
         <v>-8.2690858439600956E-4</v>
       </c>
-      <c r="AH63" s="40"/>
-      <c r="AI63" s="40"/>
+      <c r="AH63" s="43"/>
+      <c r="AI63" s="43"/>
       <c r="AJ63" s="34"/>
       <c r="AK63" s="37"/>
       <c r="AL63" s="37"/>
@@ -3662,44 +3662,44 @@
       <c r="L64" t="s">
         <v>54</v>
       </c>
-      <c r="P64" s="39">
+      <c r="P64" s="45">
         <f t="shared" ref="P64" si="99">-SUM(P63)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39">
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="45">
         <f t="shared" ref="S64" si="100">-SUM(S63:Y63)*$S$44</f>
         <v>2.7563619479866982E-4</v>
       </c>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="45"/>
       <c r="V64" s="18"/>
-      <c r="W64" s="39">
+      <c r="W64" s="45">
         <f t="shared" ref="W64" si="101">-SUM(S63:Y63)*$W$44</f>
         <v>1.3781809739933491E-4</v>
       </c>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39">
+      <c r="X64" s="45"/>
+      <c r="Y64" s="45"/>
+      <c r="Z64" s="45">
         <f t="shared" ref="Z64" si="102">-SUM(Z63:AF63)*$Z$44</f>
         <v>1.3781809739933499E-4</v>
       </c>
-      <c r="AA64" s="39"/>
-      <c r="AB64" s="39"/>
+      <c r="AA64" s="45"/>
+      <c r="AB64" s="45"/>
       <c r="AC64" s="18"/>
-      <c r="AD64" s="39">
+      <c r="AD64" s="45">
         <f t="shared" ref="AD64" si="103">-SUM(Z63:AF63)*$AD$44</f>
         <v>2.7563619479866998E-4</v>
       </c>
-      <c r="AE64" s="39"/>
-      <c r="AF64" s="39"/>
-      <c r="AG64" s="39">
+      <c r="AE64" s="45"/>
+      <c r="AF64" s="45"/>
+      <c r="AG64" s="45">
         <f t="shared" ref="AG64" si="104">-SUM(AG63)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH64" s="39"/>
-      <c r="AI64" s="39"/>
+      <c r="AH64" s="45"/>
+      <c r="AI64" s="45"/>
       <c r="AJ64" s="18"/>
       <c r="AK64" s="37"/>
       <c r="AL64" s="37"/>
@@ -3709,44 +3709,44 @@
       <c r="L65" t="s">
         <v>55</v>
       </c>
-      <c r="P65" s="38">
+      <c r="P65" s="40">
         <f>SUM(P45:R64)</f>
         <v>-17857.142975272662</v>
       </c>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38">
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40">
         <f>SUM(S45:U64)</f>
         <v>14285.714325090888</v>
       </c>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
       <c r="V65" s="15"/>
-      <c r="W65" s="38">
+      <c r="W65" s="40">
         <f>SUM(W45:Y64)</f>
         <v>-14285.714325090887</v>
       </c>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38">
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40">
         <f>SUM(Z45:AB64)</f>
         <v>10714.285674909112</v>
       </c>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
+      <c r="AA65" s="40"/>
+      <c r="AB65" s="40"/>
       <c r="AC65" s="15"/>
-      <c r="AD65" s="38">
+      <c r="AD65" s="40">
         <f>SUM(AD45:AF64)</f>
         <v>-10714.285674909113</v>
       </c>
-      <c r="AE65" s="38"/>
-      <c r="AF65" s="38"/>
-      <c r="AG65" s="38">
+      <c r="AE65" s="40"/>
+      <c r="AF65" s="40"/>
+      <c r="AG65" s="40">
         <f>SUM(AG45:AI64)</f>
         <v>7142.8570247273465</v>
       </c>
-      <c r="AH65" s="38"/>
-      <c r="AI65" s="38"/>
+      <c r="AH65" s="40"/>
+      <c r="AI65" s="40"/>
       <c r="AJ65" s="18"/>
       <c r="AK65" s="37"/>
       <c r="AL65" s="37"/>
@@ -3846,6 +3846,271 @@
     </row>
   </sheetData>
   <mergeCells count="289">
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="Z69:AB69"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AI69"/>
+    <mergeCell ref="AK69:AM69"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AG68:AI68"/>
+    <mergeCell ref="AK68:AM68"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AI67"/>
+    <mergeCell ref="AK67:AM67"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AG66:AI66"/>
+    <mergeCell ref="AK66:AM66"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AG65:AI65"/>
+    <mergeCell ref="AK65:AM65"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AG64:AI64"/>
+    <mergeCell ref="AK64:AM64"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="W63:Y63"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AI63"/>
+    <mergeCell ref="AK63:AM63"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AG62:AI62"/>
+    <mergeCell ref="AK62:AM62"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AG61:AI61"/>
+    <mergeCell ref="AK61:AM61"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="W60:Y60"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AG60:AI60"/>
+    <mergeCell ref="AK60:AM60"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AG59:AI59"/>
+    <mergeCell ref="AK59:AM59"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AG58:AI58"/>
+    <mergeCell ref="AK58:AM58"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AG57:AI57"/>
+    <mergeCell ref="AK57:AM57"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG56:AI56"/>
+    <mergeCell ref="AK56:AM56"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="W55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AI55"/>
+    <mergeCell ref="AK55:AM55"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AI54"/>
+    <mergeCell ref="AK54:AM54"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AI53"/>
+    <mergeCell ref="AK53:AM53"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AI52"/>
+    <mergeCell ref="AK52:AM52"/>
+    <mergeCell ref="AK49:AM49"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AI48"/>
+    <mergeCell ref="AK48:AM48"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AG51:AI51"/>
+    <mergeCell ref="AK51:AM51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AG50:AI50"/>
+    <mergeCell ref="AK50:AM50"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AG47:AI47"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AG46:AI46"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AI49"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="CP10:CR10"/>
+    <mergeCell ref="CM9:CO9"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="BU10:BW10"/>
+    <mergeCell ref="BX10:BZ10"/>
+    <mergeCell ref="CA10:CC10"/>
+    <mergeCell ref="CD10:CF10"/>
+    <mergeCell ref="CG10:CI10"/>
+    <mergeCell ref="CJ10:CL10"/>
+    <mergeCell ref="CM10:CO10"/>
+    <mergeCell ref="CG9:CI9"/>
+    <mergeCell ref="CJ9:CL9"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="AK28:AP28"/>
+    <mergeCell ref="AK27:AP27"/>
+    <mergeCell ref="AK30:AP30"/>
+    <mergeCell ref="AD31:AI31"/>
+    <mergeCell ref="AK31:AP31"/>
+    <mergeCell ref="AD27:AH27"/>
+    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="AG34:AI34"/>
+    <mergeCell ref="AK26:AP26"/>
+    <mergeCell ref="AD30:AI30"/>
+    <mergeCell ref="AK33:AP33"/>
+    <mergeCell ref="BP6:CR6"/>
+    <mergeCell ref="BP7:BT7"/>
+    <mergeCell ref="BU7:BW7"/>
+    <mergeCell ref="BX7:BZ7"/>
+    <mergeCell ref="CA7:CC7"/>
+    <mergeCell ref="CD7:CF7"/>
+    <mergeCell ref="CG7:CI7"/>
+    <mergeCell ref="CJ7:CL7"/>
+    <mergeCell ref="CM7:CO7"/>
+    <mergeCell ref="CP7:CR7"/>
+    <mergeCell ref="CJ8:CL8"/>
+    <mergeCell ref="CM8:CO8"/>
+    <mergeCell ref="CP8:CR8"/>
+    <mergeCell ref="BP9:BT9"/>
+    <mergeCell ref="BU9:BW9"/>
+    <mergeCell ref="BX9:BZ9"/>
+    <mergeCell ref="CA9:CC9"/>
+    <mergeCell ref="CD9:CF9"/>
+    <mergeCell ref="AG38:AI39"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="P30:U30"/>
+    <mergeCell ref="W30:AB30"/>
+    <mergeCell ref="P31:U31"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="P27:U27"/>
+    <mergeCell ref="W27:AB27"/>
+    <mergeCell ref="P28:U28"/>
+    <mergeCell ref="W28:AB28"/>
+    <mergeCell ref="P26:U26"/>
+    <mergeCell ref="W26:AB26"/>
+    <mergeCell ref="O25:AJ25"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AD26:AI26"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="AG45:AI45"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P38:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="AD38:AF39"/>
+    <mergeCell ref="Z38:AB39"/>
+    <mergeCell ref="W38:Y39"/>
+    <mergeCell ref="S38:U39"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AK37:AP37"/>
+    <mergeCell ref="W37:AB37"/>
+    <mergeCell ref="AD37:AI37"/>
+    <mergeCell ref="P35:U35"/>
+    <mergeCell ref="P37:U37"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AG44:AI44"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="S45:U45"/>
     <mergeCell ref="AG40:AI40"/>
     <mergeCell ref="P43:R43"/>
     <mergeCell ref="W43:Y43"/>
@@ -3870,274 +4135,9 @@
     <mergeCell ref="O42:R42"/>
     <mergeCell ref="S42:Y42"/>
     <mergeCell ref="Z42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AG44:AI44"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="AG45:AI45"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P38:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AG36:AI36"/>
-    <mergeCell ref="AD38:AF39"/>
-    <mergeCell ref="Z38:AB39"/>
-    <mergeCell ref="W38:Y39"/>
-    <mergeCell ref="S38:U39"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AK37:AP37"/>
-    <mergeCell ref="W37:AB37"/>
-    <mergeCell ref="AD37:AI37"/>
-    <mergeCell ref="P35:U35"/>
-    <mergeCell ref="P37:U37"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="AG38:AI39"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Q10:W10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="P30:U30"/>
-    <mergeCell ref="W30:AB30"/>
-    <mergeCell ref="P31:U31"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="P27:U27"/>
-    <mergeCell ref="W27:AB27"/>
-    <mergeCell ref="P28:U28"/>
-    <mergeCell ref="W28:AB28"/>
-    <mergeCell ref="P26:U26"/>
-    <mergeCell ref="W26:AB26"/>
-    <mergeCell ref="O25:AJ25"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AD26:AI26"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="AG33:AI33"/>
-    <mergeCell ref="AG34:AI34"/>
-    <mergeCell ref="AK26:AP26"/>
-    <mergeCell ref="AD30:AI30"/>
-    <mergeCell ref="AK33:AP33"/>
-    <mergeCell ref="BP6:CR6"/>
-    <mergeCell ref="BP7:BT7"/>
-    <mergeCell ref="BU7:BW7"/>
-    <mergeCell ref="BX7:BZ7"/>
-    <mergeCell ref="CA7:CC7"/>
-    <mergeCell ref="CD7:CF7"/>
-    <mergeCell ref="CG7:CI7"/>
-    <mergeCell ref="CJ7:CL7"/>
-    <mergeCell ref="CM7:CO7"/>
-    <mergeCell ref="CP7:CR7"/>
-    <mergeCell ref="CJ8:CL8"/>
-    <mergeCell ref="CM8:CO8"/>
-    <mergeCell ref="CP8:CR8"/>
-    <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BU9:BW9"/>
-    <mergeCell ref="BX9:BZ9"/>
-    <mergeCell ref="CA9:CC9"/>
-    <mergeCell ref="CD9:CF9"/>
-    <mergeCell ref="CG9:CI9"/>
-    <mergeCell ref="CJ9:CL9"/>
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="CP10:CR10"/>
-    <mergeCell ref="CM9:CO9"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="BU10:BW10"/>
-    <mergeCell ref="BX10:BZ10"/>
-    <mergeCell ref="CA10:CC10"/>
-    <mergeCell ref="CD10:CF10"/>
-    <mergeCell ref="CG10:CI10"/>
-    <mergeCell ref="CJ10:CL10"/>
-    <mergeCell ref="CM10:CO10"/>
-    <mergeCell ref="AK28:AP28"/>
-    <mergeCell ref="AK27:AP27"/>
-    <mergeCell ref="AK30:AP30"/>
-    <mergeCell ref="AD31:AI31"/>
-    <mergeCell ref="AK31:AP31"/>
-    <mergeCell ref="AD27:AH27"/>
-    <mergeCell ref="AD28:AH28"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AG47:AI47"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AG46:AI46"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AI49"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="AK49:AM49"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AI48"/>
-    <mergeCell ref="AK48:AM48"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AG51:AI51"/>
-    <mergeCell ref="AK51:AM51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AG50:AI50"/>
-    <mergeCell ref="AK50:AM50"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AI53"/>
-    <mergeCell ref="AK53:AM53"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AI52"/>
-    <mergeCell ref="AK52:AM52"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="W55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AI55"/>
-    <mergeCell ref="AK55:AM55"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AG54:AI54"/>
-    <mergeCell ref="AK54:AM54"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AG57:AI57"/>
-    <mergeCell ref="AK57:AM57"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="W56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AI56"/>
-    <mergeCell ref="AK56:AM56"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AG59:AI59"/>
-    <mergeCell ref="AK59:AM59"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="W58:Y58"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AG58:AI58"/>
-    <mergeCell ref="AK58:AM58"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AG61:AI61"/>
-    <mergeCell ref="AK61:AM61"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="W60:Y60"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AG60:AI60"/>
-    <mergeCell ref="AK60:AM60"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="W63:Y63"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AI63"/>
-    <mergeCell ref="AK63:AM63"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AG62:AI62"/>
-    <mergeCell ref="AK62:AM62"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AG65:AI65"/>
-    <mergeCell ref="AK65:AM65"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AG64:AI64"/>
-    <mergeCell ref="AK64:AM64"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AI67"/>
-    <mergeCell ref="AK67:AM67"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AG66:AI66"/>
-    <mergeCell ref="AK66:AM66"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="W69:Y69"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AI69"/>
-    <mergeCell ref="AK69:AM69"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="W68:Y68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AG68:AI68"/>
-    <mergeCell ref="AK68:AM68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P30:AD30 AK30" xr:uid="{484F2383-4C7E-4DE7-B7A9-0A682ED1CB3C}">
       <formula1>$AG$8:$AG$9</formula1>
     </dataValidation>
